--- a/Normal concentrations.xlsx
+++ b/Normal concentrations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Serum" sheetId="1" r:id="rId1"/>
@@ -17,149 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="89">
   <si>
     <t>Organic acids</t>
   </si>
   <si>
-    <t>Lactic 2TMS</t>
-  </si>
-  <si>
-    <t>Methylmalonate 2TMS</t>
-  </si>
-  <si>
-    <t>Glycolic 2TMS</t>
-  </si>
-  <si>
-    <t>Oxalic 2TMS</t>
-  </si>
-  <si>
-    <t>3-hydroxybutyric 2TMS</t>
-  </si>
-  <si>
-    <t>Malonic 2TMS</t>
-  </si>
-  <si>
-    <t>Methylmalonic 2TMS</t>
-  </si>
-  <si>
-    <t>2-hydroxyisocaproic 2TMS</t>
-  </si>
-  <si>
-    <t>Succinic 2TMS</t>
-  </si>
-  <si>
-    <t>Glyceric 3TMS</t>
-  </si>
-  <si>
-    <t>Fumaric 2TMS</t>
-  </si>
-  <si>
-    <t>a-methoxyphenylacetic TMS</t>
-  </si>
-  <si>
-    <t>Hydrocinnamic TMS</t>
-  </si>
-  <si>
-    <t>3-methylglutaric 2TMS</t>
-  </si>
-  <si>
-    <t>Malonic 3TMS</t>
-  </si>
-  <si>
-    <t>Mandelic 2TMS</t>
-  </si>
-  <si>
-    <t>Malic 3TMS</t>
-  </si>
-  <si>
-    <t>4-methylmandelic 2TMS</t>
-  </si>
-  <si>
-    <t>Pyroglutamic 2TMS</t>
-  </si>
-  <si>
-    <t>4-methylcinnamic TMS</t>
-  </si>
-  <si>
-    <t>2-ketoglutaric 2TMS</t>
-  </si>
-  <si>
-    <t>3-phenyllactic 2TMS</t>
-  </si>
-  <si>
-    <t>Tropic 2TMS</t>
-  </si>
-  <si>
-    <t>b-hydroxy-b-methylglutaric 3TMS</t>
-  </si>
-  <si>
-    <t>4-hydroxybenzoic 2TMS</t>
-  </si>
-  <si>
-    <t>4-hydroxybenzeneacetic 2TMS</t>
-  </si>
-  <si>
-    <t>Suberic 2TMS</t>
-  </si>
-  <si>
-    <t>3-hydroxymandelic 3TMS</t>
-  </si>
-  <si>
-    <t>Benzylmalonic 2TMS</t>
-  </si>
-  <si>
-    <t>2-keto-3-methylvaleric 2TMS</t>
-  </si>
-  <si>
-    <t>Hippuric 2TMS</t>
-  </si>
-  <si>
-    <t>Shikimic 4TMS</t>
-  </si>
-  <si>
-    <t>Hippuric TMS</t>
-  </si>
-  <si>
-    <t>Citric 4TMS</t>
-  </si>
-  <si>
-    <t>Isocitric 4TMS</t>
-  </si>
-  <si>
-    <t>VMA 3TMS</t>
-  </si>
-  <si>
-    <t>4-hydroxyphenyllactic 3TMS</t>
-  </si>
-  <si>
     <t>Amino acids</t>
   </si>
   <si>
     <t>L-Alanine</t>
   </si>
   <si>
-    <t>L-Valine 2TMS</t>
-  </si>
-  <si>
-    <t>L-Isoleucine 2TMS</t>
-  </si>
-  <si>
-    <t>Glycine 3TMS</t>
-  </si>
-  <si>
-    <t>Serine 3TMS</t>
-  </si>
-  <si>
-    <t>L-Threonine 3TMS</t>
-  </si>
-  <si>
-    <t>Phenylalanine 2TMS</t>
-  </si>
-  <si>
-    <t>L-Lysine 4TMS</t>
-  </si>
-  <si>
     <t>L-Tyrosine</t>
   </si>
   <si>
@@ -196,27 +64,9 @@
     <t>High Concentration. uM/mmol creatinine</t>
   </si>
   <si>
-    <t>L-Valine TMS</t>
-  </si>
-  <si>
     <t>L-Proline</t>
   </si>
   <si>
-    <t>L-Leucine TMS</t>
-  </si>
-  <si>
-    <t>L-Serine 2TMS</t>
-  </si>
-  <si>
-    <t>Asparagine 3TMS</t>
-  </si>
-  <si>
-    <t>L-Glutamine 3TMS</t>
-  </si>
-  <si>
-    <t>Oleamide TMS</t>
-  </si>
-  <si>
     <t>Organic acids STD</t>
   </si>
   <si>
@@ -226,73 +76,214 @@
     <t>Sugars STD</t>
   </si>
   <si>
-    <t>L-Sorbose 5TMS MeOX</t>
-  </si>
-  <si>
     <t>Fatty Acids STD</t>
   </si>
   <si>
     <t>11-Bromoundecanoic less time</t>
   </si>
   <si>
-    <t>3,4-dihydroxyhydrocinnamic 3TMS</t>
-  </si>
-  <si>
-    <t>Dodecanoic TMS</t>
-  </si>
-  <si>
-    <t>Tridecanoic TMS</t>
-  </si>
-  <si>
-    <t>Pentadecanoic TMS</t>
-  </si>
-  <si>
-    <t>Palmitic TMS</t>
-  </si>
-  <si>
-    <t>a-Linolenic TMS</t>
-  </si>
-  <si>
-    <t>Stearic TMS</t>
-  </si>
-  <si>
-    <t>Arachidonic TMS</t>
-  </si>
-  <si>
-    <t>Behenic TMS</t>
-  </si>
-  <si>
-    <t>15-Tetracosenoic TMS</t>
-  </si>
-  <si>
-    <t>Allocholic 4TMS</t>
-  </si>
-  <si>
-    <t>D-Arabinose 4TMS MeOX</t>
-  </si>
-  <si>
-    <t>D-Ribose 4TMS MeOX</t>
-  </si>
-  <si>
-    <t>D-Xylose 4TMS MeOX</t>
-  </si>
-  <si>
-    <t>D-Rhamnose 4TMS MeOX</t>
-  </si>
-  <si>
-    <t>D-Galactose 5TMS MeOX</t>
-  </si>
-  <si>
-    <t>D-Glucose 5TMS MeOX</t>
-  </si>
-  <si>
-    <t>Sucrose 8TMS</t>
-  </si>
-  <si>
-    <t>D-Lactose 8TMS MeOX</t>
-  </si>
-  <si>
-    <t>Maltose 8TMS MeOX</t>
+    <t>D-Lactose</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Maltose</t>
+  </si>
+  <si>
+    <t>L-Valine</t>
+  </si>
+  <si>
+    <t>L-Leucine</t>
+  </si>
+  <si>
+    <t>L-Serine</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>L-Glutamine</t>
+  </si>
+  <si>
+    <t>Oleamide</t>
+  </si>
+  <si>
+    <t>Tridecanoic</t>
+  </si>
+  <si>
+    <t>Lactic</t>
+  </si>
+  <si>
+    <t>Methylmalonate</t>
+  </si>
+  <si>
+    <t>Glycolic</t>
+  </si>
+  <si>
+    <t>Oxalic</t>
+  </si>
+  <si>
+    <t>3-hydroxybutyric</t>
+  </si>
+  <si>
+    <t>Malonic</t>
+  </si>
+  <si>
+    <t>Methylmalonic</t>
+  </si>
+  <si>
+    <t>2-hydroxyisocaproic</t>
+  </si>
+  <si>
+    <t>Succinic</t>
+  </si>
+  <si>
+    <t>Glyceric</t>
+  </si>
+  <si>
+    <t>Fumaric</t>
+  </si>
+  <si>
+    <t>a-methoxyphenylacetic</t>
+  </si>
+  <si>
+    <t>Hydrocinnamic</t>
+  </si>
+  <si>
+    <t>3-methylglutaric</t>
+  </si>
+  <si>
+    <t>Mandelic</t>
+  </si>
+  <si>
+    <t>Malic</t>
+  </si>
+  <si>
+    <t>4-methylmandelic</t>
+  </si>
+  <si>
+    <t>Pyroglutamic</t>
+  </si>
+  <si>
+    <t>4-methylcinnamic</t>
+  </si>
+  <si>
+    <t>2-ketoglutaric</t>
+  </si>
+  <si>
+    <t>3-phenyllactic</t>
+  </si>
+  <si>
+    <t>Tropic</t>
+  </si>
+  <si>
+    <t>b-hydroxy-b-methylglutaric</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoic</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzeneacetic</t>
+  </si>
+  <si>
+    <t>Suberic</t>
+  </si>
+  <si>
+    <t>3-hydroxymandelic</t>
+  </si>
+  <si>
+    <t>Benzylmalonic</t>
+  </si>
+  <si>
+    <t>2-keto-3-methylvaleric</t>
+  </si>
+  <si>
+    <t>Hippuric</t>
+  </si>
+  <si>
+    <t>Shikimic</t>
+  </si>
+  <si>
+    <t>Citric</t>
+  </si>
+  <si>
+    <t>Isocitric</t>
+  </si>
+  <si>
+    <t>VMA</t>
+  </si>
+  <si>
+    <t>4-hydroxyphenyllactic</t>
+  </si>
+  <si>
+    <t>3,4-dihydroxyhydrocinnamic</t>
+  </si>
+  <si>
+    <t>L-Isoleucine</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>L-Threonine</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>L-Lysine</t>
+  </si>
+  <si>
+    <t>D-Arabinose</t>
+  </si>
+  <si>
+    <t>D-Glucose</t>
+  </si>
+  <si>
+    <t>D-Rhamnose</t>
+  </si>
+  <si>
+    <t>D-Xylose</t>
+  </si>
+  <si>
+    <t>D-Ribose</t>
+  </si>
+  <si>
+    <t>D-Galactose</t>
+  </si>
+  <si>
+    <t>Dodecanoic</t>
+  </si>
+  <si>
+    <t>15-Tetracosenoic</t>
+  </si>
+  <si>
+    <t>a-Linolenic</t>
+  </si>
+  <si>
+    <t>Stearic</t>
+  </si>
+  <si>
+    <t>Behenic</t>
+  </si>
+  <si>
+    <t>Palmitic</t>
+  </si>
+  <si>
+    <t>Arachidonic</t>
+  </si>
+  <si>
+    <t>Pentadecanoic</t>
+  </si>
+  <si>
+    <t>Allocholic</t>
+  </si>
+  <si>
+    <t>L-Sorbose</t>
   </si>
 </sst>
 </file>
@@ -353,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -361,8 +352,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -657,16 +646,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
@@ -681,19 +670,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="B1" s="5"/>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>700</v>
@@ -707,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -721,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>5.5</v>
@@ -735,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>6.5</v>
@@ -749,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
         <v>22</v>
@@ -763,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>12.3</v>
@@ -777,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>0.04</v>
@@ -791,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -805,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -819,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -833,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -847,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>0.109</v>
@@ -861,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>0.50900000000000001</v>
@@ -875,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -889,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>12.3</v>
@@ -903,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -917,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -931,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -945,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>15.8</v>
@@ -959,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -973,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -987,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1001,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1015,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1029,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3">
         <v>2.504</v>
@@ -1043,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3">
         <v>6.9109999999999996</v>
@@ -1057,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -1071,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1085,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1099,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3">
         <v>8</v>
@@ -1113,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -1127,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3">
         <v>0.03</v>
@@ -1141,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1155,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
@@ -1169,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1183,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
         <v>2.7E-2</v>
@@ -1197,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>0.4</v>
@@ -1211,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
         <v>1.4E-2</v>
@@ -1222,10 +1215,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4">
         <v>200</v>
@@ -1236,10 +1229,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4">
         <v>190</v>
@@ -1250,10 +1243,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C45" s="4">
         <v>20</v>
@@ -1264,10 +1257,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C46" s="4">
         <v>120</v>
@@ -1278,10 +1271,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4">
         <v>50</v>
@@ -1292,10 +1285,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4">
         <v>80</v>
@@ -1306,10 +1299,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4">
         <v>30</v>
@@ -1320,10 +1313,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4">
         <v>156</v>
@@ -1334,10 +1327,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C51" s="4">
         <v>47</v>
@@ -1348,10 +1341,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -1362,10 +1355,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -1376,10 +1369,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3">
         <v>0.6</v>
@@ -1390,10 +1383,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3">
         <v>4700</v>
@@ -1404,10 +1397,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3">
         <v>32</v>
@@ -1418,10 +1411,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -1432,10 +1425,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C60" s="3">
         <v>1800</v>
@@ -1446,10 +1439,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -1460,10 +1453,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -1474,10 +1467,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3">
         <v>55</v>
@@ -1488,10 +1481,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
@@ -1502,10 +1495,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3">
         <v>0.9</v>
@@ -1516,10 +1509,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C68" s="3">
         <v>7</v>
@@ -1530,10 +1523,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>31</v>
@@ -1544,10 +1537,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C70" s="3">
         <v>0.8</v>
@@ -1558,10 +1551,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C71" s="3">
         <v>64</v>
@@ -1572,10 +1565,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C72" s="3">
         <v>12</v>
@@ -1586,10 +1579,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3">
         <v>0.65300000000000002</v>
@@ -1600,10 +1593,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -1614,109 +1607,16 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C75" s="3">
         <v>0.48</v>
       </c>
       <c r="D75" s="3">
         <v>0.96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="3">
-        <v>400</v>
-      </c>
-      <c r="D77" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="3">
-        <v>400</v>
-      </c>
-      <c r="D79" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="3">
-        <v>400</v>
-      </c>
-      <c r="D80" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="C81"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="3">
-        <v>400</v>
-      </c>
-      <c r="D83" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="3">
-        <v>400</v>
-      </c>
-      <c r="D85" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3">
-        <v>400</v>
-      </c>
-      <c r="D86" s="3">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1729,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,10 +1646,10 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1759,11 +1659,11 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="6">
         <v>17</v>
@@ -1773,11 +1673,11 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -1787,11 +1687,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <v>7</v>
@@ -1801,11 +1701,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -1815,11 +1715,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>0.75</v>
@@ -1829,11 +1729,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="6">
         <v>0.23699999999999999</v>
@@ -1843,11 +1743,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -1857,11 +1757,11 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1871,11 +1771,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="6">
         <v>14</v>
@@ -1885,11 +1785,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="6">
         <v>4.25</v>
@@ -1899,11 +1799,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="6">
         <v>0.40400000000000003</v>
@@ -1913,11 +1813,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1927,11 +1827,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -1941,11 +1841,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -1955,11 +1855,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1969,11 +1869,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1983,11 +1883,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="6">
         <v>1.19</v>
@@ -1997,11 +1897,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2011,11 +1911,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="6">
         <v>1.32</v>
@@ -2025,11 +1925,11 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2039,11 +1939,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="6">
         <v>1.58</v>
@@ -2053,11 +1953,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="6">
         <v>0.25900000000000001</v>
@@ -2067,11 +1967,11 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2081,11 +1981,11 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>0.01</v>
@@ -2095,11 +1995,11 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2109,11 +2009,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -2123,11 +2023,11 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2137,11 +2037,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2151,11 +2051,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2165,11 +2065,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2179,11 +2079,11 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2193,11 +2093,11 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2207,11 +2107,11 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2221,11 +2121,11 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="6">
         <v>29</v>
@@ -2235,11 +2135,11 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C37" s="6">
         <v>0.29499999999999998</v>
@@ -2249,11 +2149,11 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2263,11 +2163,11 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="6">
         <v>10.17</v>
@@ -2277,11 +2177,11 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>72</v>
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -2291,23 +2191,19 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>39</v>
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -2317,11 +2213,11 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>40</v>
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C44" s="6">
         <v>1.9</v>
@@ -2331,11 +2227,11 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>41</v>
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C45" s="6">
         <v>5.53</v>
@@ -2345,11 +2241,11 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>42</v>
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -2359,11 +2255,11 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>43</v>
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C47" s="6">
         <v>5.0999999999999996</v>
@@ -2373,11 +2269,11 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>44</v>
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -2387,11 +2283,11 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>45</v>
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -2401,11 +2297,11 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>46</v>
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C50" s="6">
         <v>2.2000000000000002</v>
@@ -2415,11 +2311,11 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>47</v>
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -2429,23 +2325,19 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>83</v>
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -2455,11 +2347,11 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>90</v>
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -2469,11 +2361,11 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>89</v>
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -2483,11 +2375,11 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>48</v>
+      <c r="A57" t="s">
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -2497,11 +2389,11 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>49</v>
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="6">
         <v>0</v>
@@ -2511,11 +2403,11 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>86</v>
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
@@ -2525,11 +2417,11 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>85</v>
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
       </c>
       <c r="C60" s="6">
         <v>0</v>
@@ -2539,11 +2431,11 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>84</v>
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
       </c>
       <c r="C61" s="6">
         <v>0</v>
@@ -2553,11 +2445,11 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>91</v>
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
       </c>
       <c r="C62" s="6">
         <v>0</v>
@@ -2567,11 +2459,11 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>87</v>
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
       </c>
       <c r="C63" s="6">
         <v>0</v>
@@ -2581,23 +2473,19 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>73</v>
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
@@ -2607,26 +2495,26 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C68" s="6">
         <v>0</v>
       </c>
@@ -2635,11 +2523,11 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>78</v>
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
@@ -2649,11 +2537,11 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>80</v>
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
       </c>
       <c r="C70" s="6">
         <v>0</v>
@@ -2663,11 +2551,11 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>76</v>
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
       </c>
       <c r="C71" s="6">
         <v>9.59</v>
@@ -2677,11 +2565,11 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>79</v>
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
       </c>
       <c r="C72" s="6">
         <v>0</v>
@@ -2691,11 +2579,11 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>75</v>
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
       </c>
       <c r="C73" s="6">
         <v>0</v>
@@ -2705,11 +2593,11 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>74</v>
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
       </c>
       <c r="C74" s="6">
         <v>0</v>
@@ -2719,11 +2607,11 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>82</v>
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C75" s="6">
         <v>0</v>
@@ -2733,101 +2621,41 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="3">
-        <v>400</v>
-      </c>
-      <c r="D77" s="3">
-        <v>500</v>
-      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="3">
-        <v>400</v>
-      </c>
-      <c r="D79" s="3">
-        <v>500</v>
-      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="3">
-        <v>400</v>
-      </c>
-      <c r="D80" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="3:4">
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="3:4">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="3">
-        <v>400</v>
-      </c>
-      <c r="D83" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    <row r="83" spans="3:4">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="3:4">
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="3">
-        <v>400</v>
-      </c>
-      <c r="D85" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3">
-        <v>400</v>
-      </c>
-      <c r="D86" s="3">
-        <v>500</v>
-      </c>
+    <row r="85" spans="3:4">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,32 +2667,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
+      <c r="B1" s="5"/>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>3.5</v>
@@ -2878,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2892,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>15.8</v>
@@ -2906,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3">
         <v>3.9</v>
@@ -2920,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -2934,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>1.2</v>
@@ -2948,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -2962,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2976,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <v>0.3</v>
@@ -2990,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>0.5</v>
@@ -3004,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>0.2</v>
@@ -3018,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>2.7E-2</v>
@@ -3032,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>0.14299999999999999</v>
@@ -3046,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>1.3</v>
@@ -3060,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -3074,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>5.2999999999999999E-2</v>
@@ -3088,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -3102,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -3116,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>4.5</v>
@@ -3130,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -3144,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -3158,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -3172,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -3186,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3">
         <v>1.1000000000000001</v>
@@ -3200,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3">
         <v>0.1</v>
@@ -3214,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3">
         <v>1.4</v>
@@ -3228,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -3242,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3">
         <v>8.9999999999999993E-3</v>
@@ -3256,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -3270,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3">
         <v>0.11</v>
@@ -3284,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3">
         <v>64</v>
@@ -3298,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3">
         <v>3.0000000000000001E-3</v>
@@ -3312,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3">
         <v>64</v>
@@ -3326,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>49</v>
@@ -3340,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3">
         <v>19.399999999999999</v>
@@ -3354,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
         <v>0.6</v>
@@ -3368,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>0.2</v>
@@ -3382,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
         <v>4.3999999999999997E-2</v>
@@ -3401,10 +3233,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" ref="C43:C51" si="0">G43*0.113</f>
@@ -3423,10 +3255,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
@@ -3445,10 +3277,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="0"/>
@@ -3467,10 +3299,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="0"/>
@@ -3489,10 +3321,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="0"/>
@@ -3511,10 +3343,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="0"/>
@@ -3533,10 +3365,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="0"/>
@@ -3555,10 +3387,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="0"/>
@@ -3577,10 +3409,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="0"/>
@@ -3607,10 +3439,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -3621,10 +3453,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -3635,10 +3467,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3">
         <v>1.4</v>
@@ -3649,10 +3481,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -3663,10 +3495,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -3677,10 +3509,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -3691,10 +3523,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C60" s="3">
         <v>2.9</v>
@@ -3705,10 +3537,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C61" s="3">
         <v>2.6</v>
@@ -3719,10 +3551,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3">
         <v>1.3</v>
@@ -3733,10 +3565,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -3755,10 +3587,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3">
         <v>0.01</v>
@@ -3769,10 +3601,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -3783,10 +3615,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -3797,10 +3629,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3">
         <v>1.6</v>
@@ -3811,10 +3643,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -3825,10 +3657,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C71" s="3">
         <v>2.6</v>
@@ -3839,10 +3671,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C72" s="3">
         <v>1.82</v>
@@ -3853,10 +3685,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -3867,10 +3699,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -3881,10 +3713,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -3894,101 +3726,41 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="3">
-        <v>400</v>
-      </c>
-      <c r="D77" s="3">
-        <v>500</v>
-      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4">
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="3">
-        <v>400</v>
-      </c>
-      <c r="D79" s="3">
-        <v>500</v>
-      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="3">
-        <v>400</v>
-      </c>
-      <c r="D80" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="3:4">
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="3:4">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="3">
-        <v>400</v>
-      </c>
-      <c r="D83" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    <row r="83" spans="3:4">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="3:4">
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="3">
-        <v>400</v>
-      </c>
-      <c r="D85" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="3">
-        <v>400</v>
-      </c>
-      <c r="D86" s="3">
-        <v>500</v>
-      </c>
+    <row r="85" spans="3:4">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3998,72 +3770,183 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>400</v>
+      </c>
+      <c r="D10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>400</v>
+      </c>
+      <c r="D12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>400</v>
+      </c>
+      <c r="D13" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3">
+        <v>400</v>
+      </c>
+      <c r="D16" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>400</v>
+      </c>
+      <c r="D18" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>400</v>
+      </c>
+      <c r="D19" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>400</v>
+      </c>
+      <c r="D20" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Normal concentrations.xlsx
+++ b/Normal concentrations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Serum" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Urine" sheetId="3" r:id="rId3"/>
     <sheet name="Stop List" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="90">
   <si>
     <t>Organic acids</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>L-Sorbose</t>
+  </si>
+  <si>
+    <t>Pyruvic</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,14 +688,14 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+      <c r="B3" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="3">
-        <v>700</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -700,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1630,7 +1633,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1662,14 +1665,14 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>826</v>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1677,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2667,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2695,14 +2698,14 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+      <c r="B3" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>46</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2710,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="3">
-        <v>3.29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3770,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3782,6 +3785,14 @@
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>

--- a/Normal concentrations.xlsx
+++ b/Normal concentrations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Serum" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Urine" sheetId="3" r:id="rId3"/>
     <sheet name="Stop List" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2670,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
